--- a/DML/Datos iniciales Catalogo y Parametro.xlsx
+++ b/DML/Datos iniciales Catalogo y Parametro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\BANOBRAS\Proyectos\SIPEFI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\BANOBRAS\Proyectos\SIPEFI\DML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06787C22-4E55-4B94-B9C8-F84AAD52B4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BC5BFD-D1C2-4588-A825-02AD1D1AF9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="14" xr2:uid="{73EB4888-AB75-46D2-8934-3626417A9C70}"/>
   </bookViews>
@@ -335,10 +335,6 @@
     <t xml:space="preserve">Portafolio de evidencias </t>
   </si>
   <si>
-    <t>Proyecto (representación,
-diseño, producto, etc.)</t>
-  </si>
-  <si>
     <t>Propuestas de intervención</t>
   </si>
   <si>
@@ -553,6 +549,9 @@
   </si>
   <si>
     <t>http://127.0.0.1/SIPEFI/TOMO_II/</t>
+  </si>
+  <si>
+    <t>Proyecto (representación, diseño, producto, etc.)</t>
   </si>
 </sst>
 </file>
@@ -1263,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
         <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1280,10 +1279,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1297,10 +1296,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
         <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1314,10 +1313,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" t="s">
         <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1331,10 +1330,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1348,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
         <v>136</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1365,10 +1364,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
         <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1382,10 +1381,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" t="s">
         <v>140</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1399,10 +1398,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
         <v>142</v>
-      </c>
-      <c r="C10" t="s">
-        <v>143</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1416,10 +1415,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
         <v>144</v>
-      </c>
-      <c r="C11" t="s">
-        <v>145</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1433,10 +1432,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
         <v>146</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1450,10 +1449,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" t="s">
         <v>148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>149</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1467,10 +1466,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
         <v>150</v>
-      </c>
-      <c r="C14" t="s">
-        <v>151</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1484,10 +1483,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
         <v>152</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1501,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" t="s">
         <v>154</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1683,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1694,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1705,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -1716,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -1727,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -1738,7 +1737,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
@@ -1749,7 +1748,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -1804,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -1815,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1826,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -1894,13 +1893,13 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
         <v>166</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1960,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -2561,7 +2560,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2761,7 +2760,7 @@
         <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
@@ -2772,10 +2771,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
@@ -2786,10 +2785,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
@@ -2800,10 +2799,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
@@ -2814,10 +2813,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
@@ -2828,10 +2827,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
         <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
@@ -2850,7 +2849,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2907,7 +2906,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2921,7 +2920,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2935,7 +2934,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2949,7 +2948,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2963,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2977,7 +2976,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -2991,7 +2990,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3005,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -3019,7 +3018,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -3033,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -3047,7 +3046,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -3061,7 +3060,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3075,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -3089,7 +3088,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -3715,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
@@ -3726,7 +3725,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -3737,7 +3736,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -3748,7 +3747,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -3759,7 +3758,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -3770,7 +3769,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
@@ -3781,7 +3780,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
